--- a/Lab_2_Programming_Exercise/Lab2_Prep_Code_ChengyuZHANG/Data/LeibRampProfile.xlsx
+++ b/Lab_2_Programming_Exercise/Lab2_Prep_Code_ChengyuZHANG/Data/LeibRampProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangchengyu/Desktop/Y2-course/Y4-course/MMME3085-Mechatronics/Lab Programming Exercise 2/Lab2_Prep_Code_ChengyuZHANG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangchengyu/Desktop/Y2-course/Y4-course/MMME3085-Mechatronics/3085SourceCode/Lab_2_Programming_Exercise/Lab2_Prep_Code_ChengyuZHANG/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F0B123DE-1445-CE4F-B484-EC2AB1499131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F03DF56-A5E5-604A-A5FA-863D736F5B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="1840" windowWidth="28240" windowHeight="17440"/>
+    <workbookView xWindow="10400" yWindow="1580" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeibRampProfile" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -787,151 +787,151 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13300000000000001</c:v>
+                  <c:v>0.189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.249</c:v>
+                  <c:v>0.34699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35199999999999998</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44600000000000001</c:v>
+                  <c:v>0.59599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53300000000000003</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61399999999999999</c:v>
+                  <c:v>0.79400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69099999999999995</c:v>
+                  <c:v>0.88100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76400000000000001</c:v>
+                  <c:v>0.96199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83299999999999996</c:v>
+                  <c:v>1.0389999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.89900000000000002</c:v>
+                  <c:v>1.1120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96199999999999997</c:v>
+                  <c:v>1.181</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0229999999999999</c:v>
+                  <c:v>1.2470000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0820000000000001</c:v>
+                  <c:v>1.3109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.139</c:v>
+                  <c:v>1.3720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.194</c:v>
+                  <c:v>1.431</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.248</c:v>
+                  <c:v>1.488</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3</c:v>
+                  <c:v>1.5429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.351</c:v>
+                  <c:v>1.597</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4019999999999999</c:v>
+                  <c:v>1.649</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4530000000000001</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.504</c:v>
+                  <c:v>1.7509999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.5549999999999999</c:v>
+                  <c:v>1.802</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.6060000000000001</c:v>
+                  <c:v>1.853</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.657</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.708</c:v>
+                  <c:v>1.9550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7589999999999999</c:v>
+                  <c:v>2.0059999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.81</c:v>
+                  <c:v>2.0569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.861</c:v>
+                  <c:v>2.1080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.9119999999999999</c:v>
+                  <c:v>2.1589999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9630000000000001</c:v>
+                  <c:v>2.21</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0150000000000001</c:v>
+                  <c:v>2.262</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.069</c:v>
+                  <c:v>2.3159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1240000000000001</c:v>
+                  <c:v>2.371</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.181</c:v>
+                  <c:v>2.4279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>2.4870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.3010000000000002</c:v>
+                  <c:v>2.548</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.3639999999999999</c:v>
+                  <c:v>2.6120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.4300000000000002</c:v>
+                  <c:v>2.6779999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.4990000000000001</c:v>
+                  <c:v>2.7469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.5720000000000001</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.649</c:v>
+                  <c:v>2.8969999999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.73</c:v>
+                  <c:v>2.9790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.8170000000000002</c:v>
+                  <c:v>3.0659999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.911</c:v>
+                  <c:v>3.161</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0150000000000001</c:v>
+                  <c:v>3.2650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1320000000000001</c:v>
+                  <c:v>3.3820000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2679999999999998</c:v>
+                  <c:v>3.5179999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.4249999999999998</c:v>
+                  <c:v>3.6859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.5819999999999999</c:v>
+                  <c:v>3.9049999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,154 +943,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>6.3949999999999996</c:v>
+                  <c:v>4.5830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5670000000000002</c:v>
+                  <c:v>5.3040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6869999999999994</c:v>
+                  <c:v>6.359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.718</c:v>
+                  <c:v>7.5309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.669</c:v>
+                  <c:v>8.6530000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.55</c:v>
+                  <c:v>9.6880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.372999999999999</c:v>
+                  <c:v>10.64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.148</c:v>
+                  <c:v>11.523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.881</c:v>
+                  <c:v>12.348000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.579000000000001</c:v>
+                  <c:v>13.124000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.244999999999999</c:v>
+                  <c:v>13.859</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.885</c:v>
+                  <c:v>14.558</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.5</c:v>
+                  <c:v>15.225</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.093</c:v>
+                  <c:v>15.865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.667000000000002</c:v>
+                  <c:v>16.481000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.222000000000001</c:v>
+                  <c:v>17.074999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.762</c:v>
+                  <c:v>17.649000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.286000000000001</c:v>
+                  <c:v>18.204999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>18.745000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>19.27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>19.782</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>19.782</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>19.782</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>19.782</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>19.782</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>19.782</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>19.782</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>19.782</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>19.782</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>19.782</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19.797000000000001</c:v>
+                  <c:v>19.782</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.286000000000001</c:v>
+                  <c:v>19.27</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>18.762</c:v>
+                  <c:v>18.745000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18.222000000000001</c:v>
+                  <c:v>18.204999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17.666</c:v>
+                  <c:v>17.648</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.091999999999999</c:v>
+                  <c:v>17.074000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16.498000000000001</c:v>
+                  <c:v>16.478999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>15.882</c:v>
+                  <c:v>15.863</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15.242000000000001</c:v>
+                  <c:v>15.222</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14.574</c:v>
+                  <c:v>14.553000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13.875</c:v>
+                  <c:v>13.853</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.138999999999999</c:v>
+                  <c:v>13.116</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.361000000000001</c:v>
+                  <c:v>12.336</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.532</c:v>
+                  <c:v>11.506</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10.641999999999999</c:v>
+                  <c:v>10.613</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.6739999999999995</c:v>
+                  <c:v>9.6430000000000007</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.6069999999999993</c:v>
+                  <c:v>8.5719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.4050000000000002</c:v>
+                  <c:v>7.3650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.3949999999999996</c:v>
+                  <c:v>5.9619999999999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.3949999999999996</c:v>
+                  <c:v>4.5830000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2298,11 +2298,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2336,364 +2336,364 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.3949999999999996</v>
+        <v>4.5830000000000002</v>
       </c>
       <c r="C2">
-        <v>40.9</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>156.36500000000001</v>
+        <v>218.21799999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0.13300000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="B3">
-        <v>7.5670000000000002</v>
+        <v>5.3040000000000003</v>
       </c>
       <c r="C3">
-        <v>8.8650000000000002</v>
+        <v>3.8279999999999998</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>132.155</v>
+        <v>188.52799999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>0.249</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="B4">
-        <v>8.6869999999999994</v>
+        <v>6.359</v>
       </c>
       <c r="C4">
-        <v>9.7260000000000009</v>
+        <v>6.7110000000000003</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>115.121</v>
+        <v>157.245</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>0.35199999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="B5">
-        <v>9.718</v>
+        <v>7.5309999999999997</v>
       </c>
       <c r="C5">
-        <v>10.029</v>
+        <v>8.8219999999999992</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>102.89700000000001</v>
+        <v>132.785</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>0.44600000000000001</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="B6">
-        <v>10.669</v>
+        <v>8.6530000000000005</v>
       </c>
       <c r="C6">
-        <v>10.137</v>
+        <v>9.7110000000000003</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>93.733000000000004</v>
+        <v>115.565</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>0.53300000000000003</v>
+        <v>0.7</v>
       </c>
       <c r="B7">
-        <v>11.55</v>
+        <v>9.6880000000000006</v>
       </c>
       <c r="C7">
-        <v>10.175000000000001</v>
+        <v>10.023</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>86.582999999999998</v>
+        <v>103.223</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>0.61399999999999999</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="B8">
-        <v>12.372999999999999</v>
+        <v>10.64</v>
       </c>
       <c r="C8">
-        <v>10.186</v>
+        <v>10.135</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>80.822000000000003</v>
+        <v>93.981999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>0.69099999999999995</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="B9">
-        <v>13.148</v>
+        <v>11.523</v>
       </c>
       <c r="C9">
-        <v>10.185</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>76.06</v>
+        <v>86.781000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>0.76400000000000001</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="B10">
-        <v>13.881</v>
+        <v>12.348000000000001</v>
       </c>
       <c r="C10">
-        <v>10.179</v>
+        <v>10.186</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>72.040999999999997</v>
+        <v>80.983999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>0.83299999999999996</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="B11">
-        <v>14.579000000000001</v>
+        <v>13.124000000000001</v>
       </c>
       <c r="C11">
-        <v>10.172000000000001</v>
+        <v>10.185</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>68.593999999999994</v>
+        <v>76.194999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>0.89900000000000002</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="B12">
-        <v>15.244999999999999</v>
+        <v>13.859</v>
       </c>
       <c r="C12">
-        <v>10.164</v>
+        <v>10.18</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>65.593999999999994</v>
+        <v>72.156999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>0.96199999999999997</v>
+        <v>1.181</v>
       </c>
       <c r="B13">
-        <v>15.885</v>
+        <v>14.558</v>
       </c>
       <c r="C13">
-        <v>10.156000000000001</v>
+        <v>10.172000000000001</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>62.954000000000001</v>
+        <v>68.692999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>1.0229999999999999</v>
+        <v>1.2470000000000001</v>
       </c>
       <c r="B14">
-        <v>16.5</v>
+        <v>15.225</v>
       </c>
       <c r="C14">
-        <v>10.148</v>
+        <v>10.164</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14">
-        <v>60.606999999999999</v>
+        <v>65.680999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>1.0820000000000001</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="B15">
-        <v>17.093</v>
+        <v>15.865</v>
       </c>
       <c r="C15">
-        <v>10.141</v>
+        <v>10.156000000000001</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15">
-        <v>58.503999999999998</v>
+        <v>63.030999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>1.139</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="B16">
-        <v>17.667000000000002</v>
+        <v>16.481000000000002</v>
       </c>
       <c r="C16">
-        <v>10.134</v>
+        <v>10.148</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16">
-        <v>56.603999999999999</v>
+        <v>60.676000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>1.194</v>
+        <v>1.431</v>
       </c>
       <c r="B17">
-        <v>18.222000000000001</v>
+        <v>17.074999999999999</v>
       </c>
       <c r="C17">
-        <v>10.128</v>
+        <v>10.141</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>54.878</v>
+        <v>58.566000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>1.248</v>
+        <v>1.488</v>
       </c>
       <c r="B18">
-        <v>18.762</v>
+        <v>17.649000000000001</v>
       </c>
       <c r="C18">
-        <v>10.122</v>
+        <v>10.134</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>53.3</v>
+        <v>56.66</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>1.3</v>
+        <v>1.5429999999999999</v>
       </c>
       <c r="B19">
-        <v>19.286000000000001</v>
+        <v>18.204999999999998</v>
       </c>
       <c r="C19">
-        <v>10.117000000000001</v>
+        <v>10.128</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>51.85</v>
+        <v>54.929000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>1.351</v>
+        <v>1.597</v>
       </c>
       <c r="B20">
-        <v>19.797000000000001</v>
+        <v>18.745000000000001</v>
       </c>
       <c r="C20">
-        <v>10.112</v>
+        <v>10.122</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20">
-        <v>50.512</v>
+        <v>53.345999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>1.4019999999999999</v>
+        <v>1.649</v>
       </c>
       <c r="B21">
-        <v>19.797000000000001</v>
+        <v>19.27</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>10.117000000000001</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>50.512</v>
+        <v>51.893000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1.4530000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="B22">
-        <v>19.797000000000001</v>
+        <v>19.782</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>10.112</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>50.512</v>
+        <v>50.552</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>1.504</v>
+        <v>1.7509999999999999</v>
       </c>
       <c r="B23">
-        <v>19.797000000000001</v>
+        <v>19.782</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2702,15 +2702,15 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>50.512</v>
+        <v>50.552</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>1.5549999999999999</v>
+        <v>1.802</v>
       </c>
       <c r="B24">
-        <v>19.797000000000001</v>
+        <v>19.782</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2719,15 +2719,15 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>50.512</v>
+        <v>50.552</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>1.6060000000000001</v>
+        <v>1.853</v>
       </c>
       <c r="B25">
-        <v>19.797000000000001</v>
+        <v>19.782</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2736,15 +2736,15 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>50.512</v>
+        <v>50.552</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1.657</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="B26">
-        <v>19.797000000000001</v>
+        <v>19.782</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2753,15 +2753,15 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>50.512</v>
+        <v>50.552</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>1.708</v>
+        <v>1.9550000000000001</v>
       </c>
       <c r="B27">
-        <v>19.797000000000001</v>
+        <v>19.782</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2770,15 +2770,15 @@
         <v>26</v>
       </c>
       <c r="E27">
-        <v>50.512</v>
+        <v>50.552</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>1.7589999999999999</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="B28">
-        <v>19.797000000000001</v>
+        <v>19.782</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2787,15 +2787,15 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>50.512</v>
+        <v>50.552</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>1.81</v>
+        <v>2.0569999999999999</v>
       </c>
       <c r="B29">
-        <v>19.797000000000001</v>
+        <v>19.782</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2804,15 +2804,15 @@
         <v>28</v>
       </c>
       <c r="E29">
-        <v>50.512</v>
+        <v>50.552</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>1.861</v>
+        <v>2.1080000000000001</v>
       </c>
       <c r="B30">
-        <v>19.797000000000001</v>
+        <v>19.782</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2821,15 +2821,15 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>50.512</v>
+        <v>50.552</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>1.9119999999999999</v>
+        <v>2.1589999999999998</v>
       </c>
       <c r="B31">
-        <v>19.797000000000001</v>
+        <v>19.782</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2838,15 +2838,15 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <v>50.512</v>
+        <v>50.552</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>1.9630000000000001</v>
+        <v>2.21</v>
       </c>
       <c r="B32">
-        <v>19.797000000000001</v>
+        <v>19.782</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2855,32 +2855,32 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>50.512</v>
+        <v>50.552</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>2.0150000000000001</v>
+        <v>2.262</v>
       </c>
       <c r="B33">
-        <v>19.286000000000001</v>
+        <v>19.27</v>
       </c>
       <c r="C33">
-        <v>-9.8539999999999992</v>
+        <v>-9.8529999999999998</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33">
-        <v>51.85</v>
+        <v>51.893999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>2.069</v>
+        <v>2.3159999999999998</v>
       </c>
       <c r="B34">
-        <v>18.762</v>
+        <v>18.745000000000001</v>
       </c>
       <c r="C34">
         <v>-9.8450000000000006</v>
@@ -2889,15 +2889,15 @@
         <v>33</v>
       </c>
       <c r="E34">
-        <v>53.301000000000002</v>
+        <v>53.347000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2.1240000000000001</v>
+        <v>2.371</v>
       </c>
       <c r="B35">
-        <v>18.222000000000001</v>
+        <v>18.204999999999998</v>
       </c>
       <c r="C35">
         <v>-9.8350000000000009</v>
@@ -2906,66 +2906,66 @@
         <v>34</v>
       </c>
       <c r="E35">
-        <v>54.878999999999998</v>
+        <v>54.93</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>2.181</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="B36">
-        <v>17.666</v>
+        <v>17.648</v>
       </c>
       <c r="C36">
-        <v>-9.8239999999999998</v>
+        <v>-9.8230000000000004</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36">
-        <v>56.606999999999999</v>
+        <v>56.662999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>2.2400000000000002</v>
+        <v>2.4870000000000001</v>
       </c>
       <c r="B37">
-        <v>17.091999999999999</v>
+        <v>17.074000000000002</v>
       </c>
       <c r="C37">
-        <v>-9.8109999999999999</v>
+        <v>-9.81</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37">
-        <v>58.508000000000003</v>
+        <v>58.57</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>2.3010000000000002</v>
+        <v>2.548</v>
       </c>
       <c r="B38">
-        <v>16.498000000000001</v>
+        <v>16.478999999999999</v>
       </c>
       <c r="C38">
-        <v>-9.7959999999999994</v>
+        <v>-9.7949999999999999</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38">
-        <v>60.613999999999997</v>
+        <v>60.682000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>2.3639999999999999</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="B39">
-        <v>15.882</v>
+        <v>15.863</v>
       </c>
       <c r="C39">
         <v>-9.7780000000000005</v>
@@ -2974,211 +2974,211 @@
         <v>38</v>
       </c>
       <c r="E39">
-        <v>62.963000000000001</v>
+        <v>63.04</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>2.4300000000000002</v>
+        <v>2.6779999999999999</v>
       </c>
       <c r="B40">
-        <v>15.242000000000001</v>
+        <v>15.222</v>
       </c>
       <c r="C40">
-        <v>-9.7579999999999991</v>
+        <v>-9.7569999999999997</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40">
-        <v>65.608000000000004</v>
+        <v>65.694999999999993</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>2.4990000000000001</v>
+        <v>2.7469999999999999</v>
       </c>
       <c r="B41">
-        <v>14.574</v>
+        <v>14.553000000000001</v>
       </c>
       <c r="C41">
-        <v>-9.7330000000000005</v>
+        <v>-9.7319999999999993</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41">
-        <v>68.614000000000004</v>
+        <v>68.713999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>2.5720000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="B42">
-        <v>13.875</v>
+        <v>13.853</v>
       </c>
       <c r="C42">
-        <v>-9.7029999999999994</v>
+        <v>-9.702</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42">
-        <v>72.072000000000003</v>
+        <v>72.188000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>2.649</v>
+        <v>2.8969999999999998</v>
       </c>
       <c r="B43">
-        <v>13.138999999999999</v>
+        <v>13.116</v>
       </c>
       <c r="C43">
-        <v>-9.6660000000000004</v>
+        <v>-9.6649999999999991</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
       <c r="E43">
-        <v>76.108000000000004</v>
+        <v>76.244</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>2.73</v>
+        <v>2.9790000000000001</v>
       </c>
       <c r="B44">
-        <v>12.361000000000001</v>
+        <v>12.336</v>
       </c>
       <c r="C44">
-        <v>-9.6199999999999992</v>
+        <v>-9.6180000000000003</v>
       </c>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44">
-        <v>80.899000000000001</v>
+        <v>81.061999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>2.8170000000000002</v>
+        <v>3.0659999999999998</v>
       </c>
       <c r="B45">
-        <v>11.532</v>
+        <v>11.506</v>
       </c>
       <c r="C45">
-        <v>-9.5579999999999998</v>
+        <v>-9.5559999999999992</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
       <c r="E45">
-        <v>86.713999999999999</v>
+        <v>86.914000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>2.911</v>
+        <v>3.161</v>
       </c>
       <c r="B46">
-        <v>10.641999999999999</v>
+        <v>10.613</v>
       </c>
       <c r="C46">
-        <v>-9.4760000000000009</v>
+        <v>-9.4730000000000008</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
       <c r="E46">
-        <v>93.97</v>
+        <v>94.224000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>3.0150000000000001</v>
+        <v>3.2650000000000001</v>
       </c>
       <c r="B47">
-        <v>9.6739999999999995</v>
+        <v>9.6430000000000007</v>
       </c>
       <c r="C47">
-        <v>-9.359</v>
+        <v>-9.3550000000000004</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
       <c r="E47">
-        <v>103.366</v>
+        <v>103.703</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>3.1320000000000001</v>
+        <v>3.3820000000000001</v>
       </c>
       <c r="B48">
-        <v>8.6069999999999993</v>
+        <v>8.5719999999999992</v>
       </c>
       <c r="C48">
-        <v>-9.1839999999999993</v>
+        <v>-9.1780000000000008</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
       <c r="E48">
-        <v>116.181</v>
+        <v>116.655</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>3.2679999999999998</v>
+        <v>3.5179999999999998</v>
       </c>
       <c r="B49">
-        <v>7.4050000000000002</v>
+        <v>7.3650000000000002</v>
       </c>
       <c r="C49">
-        <v>-8.9009999999999998</v>
+        <v>-8.8889999999999993</v>
       </c>
       <c r="D49">
         <v>48</v>
       </c>
       <c r="E49">
-        <v>135.03800000000001</v>
+        <v>135.77000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>3.4249999999999998</v>
+        <v>3.6859999999999999</v>
       </c>
       <c r="B50">
-        <v>6.3949999999999996</v>
+        <v>5.9619999999999997</v>
       </c>
       <c r="C50">
-        <v>-6.4589999999999996</v>
+        <v>-8.3650000000000002</v>
       </c>
       <c r="D50">
         <v>49</v>
       </c>
       <c r="E50">
-        <v>156.36500000000001</v>
+        <v>167.71700000000001</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>3.5819999999999999</v>
+        <v>3.9049999999999998</v>
       </c>
       <c r="B51">
-        <v>6.3949999999999996</v>
+        <v>4.5830000000000002</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>-6.3230000000000004</v>
       </c>
       <c r="D51">
         <v>50</v>
       </c>
       <c r="E51">
-        <v>156.36500000000001</v>
+        <v>218.21799999999999</v>
       </c>
     </row>
   </sheetData>
